--- a/src/test/java/com/FaceBook/Testdata/TestData.xlsx
+++ b/src/test/java/com/FaceBook/Testdata/TestData.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\WorkSpace\Automation\FaceBookv1\src\test\java\com\FaceBook\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\WorkSpace\FaceBookv1\FaceBookv1\src\test\java\com\FaceBook\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A963A9-8238-449C-B8AA-F7BD4E06B221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495B1E94-4352-459A-BE0F-D3C5ADF6D180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Credentails" sheetId="1" r:id="rId1"/>
+    <sheet name="Credentials" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -36,7 +36,13 @@
     <t>testingbrain238@gmail.com</t>
   </si>
   <si>
-    <t>Test@2021</t>
+    <t>Jobs@2022</t>
+  </si>
+  <si>
+    <t>Jobs@2021</t>
+  </si>
+  <si>
+    <t>Testing brain</t>
   </si>
 </sst>
 </file>
@@ -81,9 +87,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -365,15 +372,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -385,17 +393,33 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7E910A4B-60BE-40CC-9038-1FCB69C152E1}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{93D0A0BD-6B57-412A-B5D2-74CD6D286A7F}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{EF7F1902-4FF8-4E88-85CB-0F1560934613}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{8B8599FC-A0E3-4EA6-A9A0-1C7134E02103}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
